--- a/ASEM_input_sheets.xlsx
+++ b/ASEM_input_sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42dcc5b33b6ca4b2/Work/Presentations/Composite Indicators/2021-11-COIN-WEEK/COINrDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="389" documentId="8_{3D7CFF11-DA9F-44F7-94AA-EB6CB1F56F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{957C87CB-AC89-4624-84DE-A933CC506D47}"/>
+  <xr:revisionPtr revIDLastSave="393" documentId="8_{3D7CFF11-DA9F-44F7-94AA-EB6CB1F56F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E66D8F2-7C18-4D8F-9D1B-0524613C44E7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F169ED02-7F46-43BF-9937-0EEBF24EA05E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="275">
   <si>
     <t>Austria</t>
   </si>
@@ -473,9 +473,6 @@
     <t>UnitCode</t>
   </si>
   <si>
-    <t>AT</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -488,165 +485,15 @@
     <t>Europe</t>
   </si>
   <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>BG</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>CY</t>
-  </si>
-  <si>
-    <t>CZ</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>GR</t>
-  </si>
-  <si>
-    <t>HU</t>
-  </si>
-  <si>
-    <t>IE</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>LV</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>NL</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>ES</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
     <t>Asia</t>
   </si>
   <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>BN</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>JP</t>
-  </si>
-  <si>
-    <t>KZ</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>MY</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>NZ</t>
-  </si>
-  <si>
-    <t>PK</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>VN</t>
-  </si>
-  <si>
     <t>Group_GDP</t>
   </si>
   <si>
@@ -758,9 +605,6 @@
     <t>ChiNA</t>
   </si>
   <si>
-    <t>VietNAm</t>
-  </si>
-  <si>
     <t>Denominator</t>
   </si>
   <si>
@@ -845,9 +689,6 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -861,6 +702,165 @@
   </si>
   <si>
     <t>UnitName</t>
+  </si>
+  <si>
+    <t>AgLevel</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>VietNam</t>
   </si>
 </sst>
 </file>
@@ -1360,9 +1360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5712CA56-F07C-4B0E-A948-F77032820B19}">
   <dimension ref="A1:BH52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1379,37 +1377,37 @@
   <sheetData>
     <row r="1" spans="1:60" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>95</v>
@@ -1564,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" t="s">
         <v>145</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>146</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>147</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>148</v>
-      </c>
-      <c r="F2" t="s">
-        <v>149</v>
       </c>
       <c r="G2">
         <v>2018</v>
@@ -1746,19 +1744,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3">
         <v>2018</v>
@@ -1928,19 +1926,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
         <v>148</v>
-      </c>
-      <c r="F4" t="s">
-        <v>149</v>
       </c>
       <c r="G4">
         <v>2018</v>
@@ -2110,19 +2108,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
         <v>148</v>
-      </c>
-      <c r="E5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" t="s">
-        <v>149</v>
       </c>
       <c r="G5">
         <v>2018</v>
@@ -2292,19 +2290,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G6">
         <v>2018</v>
@@ -2474,19 +2472,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" t="s">
         <v>148</v>
-      </c>
-      <c r="D7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" t="s">
-        <v>149</v>
       </c>
       <c r="G7">
         <v>2018</v>
@@ -2656,19 +2654,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" t="s">
         <v>146</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>147</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>148</v>
-      </c>
-      <c r="F8" t="s">
-        <v>149</v>
       </c>
       <c r="G8">
         <v>2018</v>
@@ -2838,19 +2836,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
         <v>148</v>
-      </c>
-      <c r="E9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" t="s">
-        <v>149</v>
       </c>
       <c r="G9">
         <v>2018</v>
@@ -3020,19 +3018,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" t="s">
         <v>148</v>
-      </c>
-      <c r="D10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" t="s">
-        <v>149</v>
       </c>
       <c r="G10">
         <v>2018</v>
@@ -3202,19 +3200,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G11">
         <v>2018</v>
@@ -3384,19 +3382,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G12">
         <v>2018</v>
@@ -3566,19 +3564,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" t="s">
         <v>148</v>
-      </c>
-      <c r="D13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" t="s">
-        <v>149</v>
       </c>
       <c r="G13">
         <v>2018</v>
@@ -3748,19 +3746,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
       <c r="C14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" t="s">
         <v>148</v>
-      </c>
-      <c r="D14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" t="s">
-        <v>149</v>
       </c>
       <c r="G14">
         <v>2018</v>
@@ -3930,19 +3928,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s">
         <v>146</v>
       </c>
-      <c r="D15" t="s">
-        <v>147</v>
-      </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G15">
         <v>2018</v>
@@ -4112,19 +4110,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G16">
         <v>2018</v>
@@ -4245,9 +4243,6 @@
       </c>
       <c r="AT16">
         <v>2.054358742426361</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>238</v>
       </c>
       <c r="AV16">
         <v>1.42</v>
@@ -4294,19 +4289,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" t="s">
         <v>148</v>
-      </c>
-      <c r="E17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" t="s">
-        <v>149</v>
       </c>
       <c r="G17">
         <v>2018</v>
@@ -4476,19 +4471,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" t="s">
         <v>148</v>
-      </c>
-      <c r="E18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" t="s">
-        <v>149</v>
       </c>
       <c r="G18">
         <v>2018</v>
@@ -4658,19 +4653,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19">
         <v>2018</v>
@@ -4840,19 +4835,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G20">
         <v>2018</v>
@@ -4976,9 +4971,6 @@
       </c>
       <c r="AU20">
         <v>0</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>238</v>
       </c>
       <c r="AW20">
         <v>13.28486</v>
@@ -5022,19 +5014,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" t="s">
         <v>146</v>
       </c>
-      <c r="D21" t="s">
-        <v>147</v>
-      </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G21">
         <v>2018</v>
@@ -5204,19 +5196,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" t="s">
         <v>146</v>
       </c>
-      <c r="D22" t="s">
-        <v>147</v>
-      </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G22">
         <v>2018</v>
@@ -5386,19 +5378,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" t="s">
         <v>148</v>
-      </c>
-      <c r="E23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" t="s">
-        <v>149</v>
       </c>
       <c r="G23">
         <v>2018</v>
@@ -5565,22 +5557,22 @@
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="C24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" t="s">
         <v>148</v>
-      </c>
-      <c r="D24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" t="s">
-        <v>149</v>
       </c>
       <c r="G24">
         <v>2018</v>
@@ -5750,19 +5742,19 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" t="s">
         <v>148</v>
-      </c>
-      <c r="D25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" t="s">
-        <v>149</v>
       </c>
       <c r="G25">
         <v>2018</v>
@@ -5932,19 +5924,19 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" t="s">
         <v>148</v>
-      </c>
-      <c r="D26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" t="s">
-        <v>149</v>
       </c>
       <c r="G26">
         <v>2018</v>
@@ -6114,19 +6106,19 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G27">
         <v>2018</v>
@@ -6296,19 +6288,19 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G28">
         <v>2018</v>
@@ -6399,9 +6391,6 @@
       </c>
       <c r="AJ28">
         <v>334.7</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>238</v>
       </c>
       <c r="AL28">
         <v>11.759</v>
@@ -6478,19 +6467,19 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" t="s">
         <v>146</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>147</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>148</v>
-      </c>
-      <c r="F29" t="s">
-        <v>149</v>
       </c>
       <c r="G29">
         <v>2018</v>
@@ -6660,19 +6649,19 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="C30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" t="s">
         <v>146</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>147</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>148</v>
-      </c>
-      <c r="F30" t="s">
-        <v>149</v>
       </c>
       <c r="G30">
         <v>2018</v>
@@ -6842,19 +6831,19 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" t="s">
         <v>146</v>
       </c>
-      <c r="E31" t="s">
-        <v>147</v>
-      </c>
       <c r="F31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G31">
         <v>2018</v>
@@ -7024,19 +7013,19 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F32" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G32">
         <v>2018</v>
@@ -7206,19 +7195,19 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F33" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G33">
         <v>2018</v>
@@ -7253,9 +7242,6 @@
       <c r="Q33">
         <v>0.14399999999999999</v>
       </c>
-      <c r="R33" t="s">
-        <v>238</v>
-      </c>
       <c r="S33">
         <v>65</v>
       </c>
@@ -7289,9 +7275,6 @@
       <c r="AC33">
         <v>10.53</v>
       </c>
-      <c r="AD33" t="s">
-        <v>238</v>
-      </c>
       <c r="AE33">
         <v>0</v>
       </c>
@@ -7307,15 +7290,9 @@
       <c r="AI33">
         <v>2084</v>
       </c>
-      <c r="AJ33" t="s">
-        <v>238</v>
-      </c>
       <c r="AK33">
         <v>1.472E-2</v>
       </c>
-      <c r="AL33" t="s">
-        <v>238</v>
-      </c>
       <c r="AM33">
         <v>0.125</v>
       </c>
@@ -7346,9 +7323,6 @@
       <c r="AV33">
         <v>1.26</v>
       </c>
-      <c r="AW33" t="s">
-        <v>238</v>
-      </c>
       <c r="AX33">
         <v>62</v>
       </c>
@@ -7375,9 +7349,6 @@
       </c>
       <c r="BF33">
         <v>6.1647874745836191</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>238</v>
       </c>
       <c r="BH33">
         <v>27.4</v>
@@ -7388,19 +7359,19 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G34">
         <v>2018</v>
@@ -7435,9 +7406,6 @@
       <c r="Q34">
         <v>6.04</v>
       </c>
-      <c r="R34" t="s">
-        <v>238</v>
-      </c>
       <c r="S34">
         <v>80</v>
       </c>
@@ -7453,9 +7421,6 @@
       <c r="W34">
         <v>0.76046276837045002</v>
       </c>
-      <c r="X34" t="s">
-        <v>238</v>
-      </c>
       <c r="Y34">
         <v>41</v>
       </c>
@@ -7489,12 +7454,6 @@
       <c r="AI34">
         <v>229</v>
       </c>
-      <c r="AJ34" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>238</v>
-      </c>
       <c r="AL34">
         <v>0.36399999999999999</v>
       </c>
@@ -7522,15 +7481,6 @@
       <c r="AT34">
         <v>3.2269753893465238</v>
       </c>
-      <c r="AU34" t="s">
-        <v>238</v>
-      </c>
-      <c r="AV34" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>238</v>
-      </c>
       <c r="AX34">
         <v>76</v>
       </c>
@@ -7543,23 +7493,14 @@
       <c r="BA34">
         <v>62</v>
       </c>
-      <c r="BB34" t="s">
-        <v>238</v>
-      </c>
       <c r="BC34">
         <v>9.0908999999999995</v>
       </c>
       <c r="BD34">
         <v>2.81</v>
       </c>
-      <c r="BE34" t="s">
-        <v>238</v>
-      </c>
       <c r="BF34">
         <v>2.8510288698797126E-2</v>
-      </c>
-      <c r="BG34" t="s">
-        <v>238</v>
       </c>
       <c r="BH34">
         <v>17.2</v>
@@ -7570,19 +7511,19 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F35" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G35">
         <v>2018</v>
@@ -7617,9 +7558,6 @@
       <c r="Q35">
         <v>0.13500000000000001</v>
       </c>
-      <c r="R35" t="s">
-        <v>238</v>
-      </c>
       <c r="S35">
         <v>30</v>
       </c>
@@ -7635,9 +7573,6 @@
       <c r="W35">
         <v>0.62886566727529603</v>
       </c>
-      <c r="X35" t="s">
-        <v>238</v>
-      </c>
       <c r="Y35">
         <v>42</v>
       </c>
@@ -7671,15 +7606,9 @@
       <c r="AI35">
         <v>378</v>
       </c>
-      <c r="AJ35" t="s">
-        <v>238</v>
-      </c>
       <c r="AK35">
         <v>5.0099999999999997E-3</v>
       </c>
-      <c r="AL35" t="s">
-        <v>238</v>
-      </c>
       <c r="AM35">
         <v>5.0119999999999996</v>
       </c>
@@ -7704,14 +7633,8 @@
       <c r="AT35">
         <v>22.806764592208179</v>
       </c>
-      <c r="AU35" t="s">
-        <v>238</v>
-      </c>
       <c r="AV35">
         <v>1.1599999999999999</v>
-      </c>
-      <c r="AW35" t="s">
-        <v>238</v>
       </c>
       <c r="AX35">
         <v>70</v>
@@ -7749,22 +7672,22 @@
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="C36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" t="s">
         <v>147</v>
       </c>
-      <c r="D36" t="s">
-        <v>148</v>
-      </c>
       <c r="E36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F36" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G36">
         <v>2018</v>
@@ -7924,9 +7847,6 @@
       </c>
       <c r="BG36">
         <v>2.0655800000000002</v>
-      </c>
-      <c r="BH36" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.25">
@@ -7934,19 +7854,19 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G37">
         <v>2018</v>
@@ -8116,19 +8036,19 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F38" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G38">
         <v>2018</v>
@@ -8222,9 +8142,6 @@
       </c>
       <c r="AK38">
         <v>0.13405</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>238</v>
       </c>
       <c r="AM38">
         <v>11.519</v>
@@ -8298,19 +8215,19 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" t="s">
         <v>146</v>
       </c>
-      <c r="E39" t="s">
-        <v>147</v>
-      </c>
       <c r="F39" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G39">
         <v>2018</v>
@@ -8431,9 +8348,6 @@
       </c>
       <c r="AT39">
         <v>1.4232737467321006</v>
-      </c>
-      <c r="AU39" t="s">
-        <v>238</v>
       </c>
       <c r="AV39">
         <v>1.22</v>
@@ -8480,19 +8394,19 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>261</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F40" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G40">
         <v>2018</v>
@@ -8527,9 +8441,6 @@
       <c r="Q40">
         <v>12.7</v>
       </c>
-      <c r="R40" t="s">
-        <v>238</v>
-      </c>
       <c r="S40">
         <v>65.5</v>
       </c>
@@ -8619,9 +8530,6 @@
       </c>
       <c r="AV40">
         <v>0.92</v>
-      </c>
-      <c r="AW40" t="s">
-        <v>238</v>
       </c>
       <c r="AX40">
         <v>85</v>
@@ -8662,19 +8570,19 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="C41" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" t="s">
         <v>147</v>
       </c>
-      <c r="D41" t="s">
-        <v>148</v>
-      </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F41" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G41">
         <v>2018</v>
@@ -8769,9 +8677,6 @@
       <c r="AK41">
         <v>1.798</v>
       </c>
-      <c r="AL41" t="s">
-        <v>238</v>
-      </c>
       <c r="AM41">
         <v>17.242000000000001</v>
       </c>
@@ -8799,9 +8704,6 @@
       <c r="AU41">
         <v>0.3</v>
       </c>
-      <c r="AV41" t="s">
-        <v>238</v>
-      </c>
       <c r="AW41">
         <v>24.35774</v>
       </c>
@@ -8834,9 +8736,6 @@
       </c>
       <c r="BG41">
         <v>4.2281599999999999</v>
-      </c>
-      <c r="BH41" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.25">
@@ -8844,19 +8743,19 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F42" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G42">
         <v>2018</v>
@@ -8864,9 +8763,6 @@
       <c r="H42">
         <v>236800</v>
       </c>
-      <c r="I42" t="s">
-        <v>238</v>
-      </c>
       <c r="J42">
         <v>15.80570708982</v>
       </c>
@@ -8891,9 +8787,6 @@
       <c r="Q42">
         <v>8.4100000000000008E-3</v>
       </c>
-      <c r="R42" t="s">
-        <v>238</v>
-      </c>
       <c r="S42">
         <v>5</v>
       </c>
@@ -8909,9 +8802,6 @@
       <c r="W42">
         <v>0.16621267270067988</v>
       </c>
-      <c r="X42" t="s">
-        <v>238</v>
-      </c>
       <c r="Y42">
         <v>41</v>
       </c>
@@ -8945,15 +8835,6 @@
       <c r="AI42">
         <v>175</v>
       </c>
-      <c r="AJ42" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK42" t="s">
-        <v>238</v>
-      </c>
-      <c r="AL42" t="s">
-        <v>238</v>
-      </c>
       <c r="AM42">
         <v>3.3149999999999999</v>
       </c>
@@ -8966,9 +8847,6 @@
       <c r="AP42">
         <v>59.315860750663397</v>
       </c>
-      <c r="AQ42" t="s">
-        <v>238</v>
-      </c>
       <c r="AR42">
         <v>0.29720088370577386</v>
       </c>
@@ -8984,9 +8862,6 @@
       <c r="AV42">
         <v>1.68</v>
       </c>
-      <c r="AW42" t="s">
-        <v>238</v>
-      </c>
       <c r="AX42">
         <v>85</v>
       </c>
@@ -9013,9 +8888,6 @@
       </c>
       <c r="BF42">
         <v>5.3371347265675411</v>
-      </c>
-      <c r="BG42" t="s">
-        <v>238</v>
       </c>
       <c r="BH42">
         <v>42.1</v>
@@ -9026,19 +8898,19 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F43" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G43">
         <v>2018</v>
@@ -9159,9 +9031,6 @@
       </c>
       <c r="AT43">
         <v>17.273541285014442</v>
-      </c>
-      <c r="AU43" t="s">
-        <v>238</v>
       </c>
       <c r="AV43">
         <v>2.62</v>
@@ -9208,19 +9077,19 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F44" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G44">
         <v>2018</v>
@@ -9255,9 +9124,6 @@
       <c r="Q44">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="R44" t="s">
-        <v>238</v>
-      </c>
       <c r="S44">
         <v>90</v>
       </c>
@@ -9288,9 +9154,6 @@
       <c r="AB44">
         <v>147</v>
       </c>
-      <c r="AC44" t="s">
-        <v>238</v>
-      </c>
       <c r="AD44">
         <v>7</v>
       </c>
@@ -9368,9 +9231,6 @@
       </c>
       <c r="BC44">
         <v>17.1053</v>
-      </c>
-      <c r="BD44" t="s">
-        <v>238</v>
       </c>
       <c r="BE44">
         <v>85.611348481956</v>
@@ -9390,19 +9250,19 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F45" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G45">
         <v>2018</v>
@@ -9437,9 +9297,6 @@
       <c r="Q45">
         <v>24.1</v>
       </c>
-      <c r="R45" t="s">
-        <v>238</v>
-      </c>
       <c r="S45">
         <v>0</v>
       </c>
@@ -9470,9 +9327,6 @@
       <c r="AB45">
         <v>350</v>
       </c>
-      <c r="AC45" t="s">
-        <v>238</v>
-      </c>
       <c r="AD45">
         <v>2</v>
       </c>
@@ -9491,15 +9345,9 @@
       <c r="AI45">
         <v>299</v>
       </c>
-      <c r="AJ45" t="s">
-        <v>238</v>
-      </c>
       <c r="AK45">
         <v>8.9050000000000004E-2</v>
       </c>
-      <c r="AL45" t="s">
-        <v>238</v>
-      </c>
       <c r="AM45">
         <v>2.907</v>
       </c>
@@ -9527,12 +9375,6 @@
       <c r="AU45">
         <v>6.4</v>
       </c>
-      <c r="AV45" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW45" t="s">
-        <v>238</v>
-      </c>
       <c r="AX45">
         <v>73</v>
       </c>
@@ -9545,9 +9387,6 @@
       <c r="BA45">
         <v>30</v>
       </c>
-      <c r="BB45" t="s">
-        <v>238</v>
-      </c>
       <c r="BC45">
         <v>10.1617</v>
       </c>
@@ -9559,9 +9398,6 @@
       </c>
       <c r="BF45">
         <v>5.4014551621835523</v>
-      </c>
-      <c r="BG45" t="s">
-        <v>238</v>
       </c>
       <c r="BH45">
         <v>17.399999999999999</v>
@@ -9572,19 +9408,19 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F46" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G46">
         <v>2018</v>
@@ -9705,12 +9541,6 @@
       </c>
       <c r="AT46">
         <v>6.0694909969268291</v>
-      </c>
-      <c r="AU46" t="s">
-        <v>238</v>
-      </c>
-      <c r="AV46" t="s">
-        <v>238</v>
       </c>
       <c r="AW46">
         <v>26.009029999999999</v>
@@ -9754,19 +9584,19 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F47" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G47">
         <v>2018</v>
@@ -9800,9 +9630,6 @@
       </c>
       <c r="Q47">
         <v>0.19500000000000001</v>
-      </c>
-      <c r="R47" t="s">
-        <v>238</v>
       </c>
       <c r="S47">
         <v>16</v>
@@ -9936,19 +9763,19 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" t="s">
         <v>146</v>
       </c>
-      <c r="D48" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" t="s">
-        <v>147</v>
-      </c>
       <c r="F48" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G48">
         <v>2018</v>
@@ -10118,19 +9945,19 @@
         <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="C49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" t="s">
         <v>147</v>
       </c>
-      <c r="D49" t="s">
-        <v>148</v>
-      </c>
       <c r="E49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F49" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G49">
         <v>2018</v>
@@ -10300,19 +10127,19 @@
         <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="C50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" t="s">
         <v>146</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>147</v>
       </c>
-      <c r="E50" t="s">
-        <v>148</v>
-      </c>
       <c r="F50" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G50">
         <v>2018</v>
@@ -10433,12 +10260,6 @@
       </c>
       <c r="AT50">
         <v>5.9836906100947376</v>
-      </c>
-      <c r="AU50" t="s">
-        <v>238</v>
-      </c>
-      <c r="AV50" t="s">
-        <v>238</v>
       </c>
       <c r="AW50">
         <v>28.210529999999999</v>
@@ -10482,19 +10303,19 @@
         <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="C51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" t="s">
         <v>146</v>
       </c>
-      <c r="D51" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51" t="s">
-        <v>147</v>
-      </c>
       <c r="F51" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G51">
         <v>2018</v>
@@ -10561,9 +10382,6 @@
       </c>
       <c r="AB51">
         <v>140</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>238</v>
       </c>
       <c r="AD51">
         <v>609</v>
@@ -10661,22 +10479,22 @@
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F52" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="G52">
         <v>2018</v>
@@ -10765,15 +10583,6 @@
       <c r="AI52">
         <v>3618</v>
       </c>
-      <c r="AJ52" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK52" t="s">
-        <v>238</v>
-      </c>
-      <c r="AL52" t="s">
-        <v>238</v>
-      </c>
       <c r="AM52">
         <v>10.013</v>
       </c>
@@ -10803,9 +10612,6 @@
       </c>
       <c r="AV52">
         <v>1.64</v>
-      </c>
-      <c r="AW52" t="s">
-        <v>238</v>
       </c>
       <c r="AX52">
         <v>84</v>
@@ -10864,34 +10670,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -10908,22 +10714,22 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="G2">
         <v>4.1180313499999999</v>
       </c>
       <c r="H2" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="I2" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J2" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -10940,22 +10746,22 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="G3">
         <v>200.33265549999999</v>
       </c>
       <c r="H3" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="I3" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J3" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -10972,22 +10778,22 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="G4">
         <v>20.113377294999999</v>
       </c>
       <c r="H4" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="I4" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J4" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11004,22 +10810,22 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="G5">
         <v>115.9</v>
       </c>
       <c r="H5" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="I5" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J5" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -11036,22 +10842,22 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="G6">
         <v>104.67058469166668</v>
       </c>
       <c r="H6" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="I6" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J6" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -11068,22 +10874,22 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="G7">
         <v>90.060420499999992</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="I7" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J7" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -11100,27 +10906,27 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F8" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="G8">
         <v>27.445</v>
       </c>
       <c r="H8" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="I8" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J8" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>102</v>
@@ -11132,22 +10938,22 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F9" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="G9">
         <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="I9" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J9" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -11164,22 +10970,22 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="G10">
         <v>1823.5959954999998</v>
       </c>
       <c r="H10" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="I10" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J10" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -11196,22 +11002,22 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="G11">
         <v>624.32247749999999</v>
       </c>
       <c r="H11" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="I11" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J11" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11228,22 +11034,22 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
       <c r="G12">
         <v>71.826499999999996</v>
       </c>
       <c r="H12" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="I12" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J12" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -11260,22 +11066,22 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="F13" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="G13">
         <v>28.707720704144698</v>
       </c>
       <c r="H13" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="I13" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J13" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -11292,22 +11098,22 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="G14">
         <v>10071.6625945</v>
       </c>
       <c r="H14" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="I14" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J14" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -11324,22 +11130,22 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F15" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="G15">
         <v>96.4</v>
       </c>
       <c r="H15" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="I15" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J15" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -11356,22 +11162,22 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F16" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="G16">
         <v>316.64999999999998</v>
       </c>
       <c r="H16" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="I16" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -11388,22 +11194,22 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F17" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="G17">
         <v>42.814530312038514</v>
       </c>
       <c r="H17" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="I17" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -11420,22 +11226,22 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F18" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="G18">
         <v>49.6</v>
       </c>
       <c r="H18" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="I18" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -11452,22 +11258,22 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F19" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="G19">
         <v>0.52649999999999997</v>
       </c>
       <c r="H19" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="I19" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -11484,22 +11290,22 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F20" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="G20">
         <v>88.65</v>
       </c>
       <c r="H20" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="I20" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -11516,22 +11322,22 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F21" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="G21">
         <v>0.95</v>
       </c>
       <c r="H21" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="I21" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -11548,22 +11354,22 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="G22">
         <v>43.75</v>
       </c>
       <c r="H22" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="I22" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J22" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -11580,22 +11386,22 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F23" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="G23">
         <v>87.45</v>
       </c>
       <c r="H23" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="I23" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -11612,22 +11418,22 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="F24" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="G24">
         <v>422.83850000000001</v>
       </c>
       <c r="H24" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J24" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -11644,22 +11450,22 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="F25" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="G25">
         <v>91528.9</v>
       </c>
       <c r="H25" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J25" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -11676,22 +11482,22 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="F26" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="G26">
         <v>2633.1299999999997</v>
       </c>
       <c r="H26" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -11708,22 +11514,22 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="G27">
         <v>9.0915949999999999</v>
       </c>
       <c r="H27" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="I27" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -11740,22 +11546,22 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
       <c r="G28">
         <v>70.746900000000011</v>
       </c>
       <c r="H28" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="I28" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J28" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -11772,22 +11578,22 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="G29">
         <v>78.447749999999999</v>
       </c>
       <c r="H29" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="I29" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J29" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -11804,22 +11610,22 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="G30">
         <v>10.38616</v>
       </c>
       <c r="H30" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J30" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -11836,22 +11642,22 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="G31">
         <v>20.411939958028626</v>
       </c>
       <c r="H31" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="I31" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="J31" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -11868,22 +11674,22 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="G32">
         <v>61.67833386692223</v>
       </c>
       <c r="H32" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="I32" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J32" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -11900,22 +11706,22 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F33" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="G33">
         <v>60.427157025121218</v>
       </c>
       <c r="H33" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="I33" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J33" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -11932,22 +11738,22 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F34" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="G34">
         <v>1.3885759016039236</v>
       </c>
       <c r="H34" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="I34" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J34" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -11964,22 +11770,22 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F35" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="G35">
         <v>4.3673444446000005</v>
       </c>
       <c r="H35" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="I35" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J35" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -11996,27 +11802,27 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="G36">
         <v>1.9023483645445065</v>
       </c>
       <c r="H36" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="I36" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J36" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>130</v>
@@ -12028,22 +11834,22 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F37" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="G37">
         <v>1.135</v>
       </c>
       <c r="H37" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="I37" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J37" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -12060,22 +11866,22 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="G38">
         <v>0.96700000000000008</v>
       </c>
       <c r="H38" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="I38" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J38" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -12092,22 +11898,22 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F39" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="G39">
         <v>35.825188499999996</v>
       </c>
       <c r="H39" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="I39" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J39" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -12124,22 +11930,22 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F40" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="G40">
         <v>11.95</v>
       </c>
       <c r="H40" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="I40" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J40" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -12156,22 +11962,22 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F41" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="G41">
         <v>1.5349999999999999</v>
       </c>
       <c r="H41" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="I41" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J41" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -12188,22 +11994,22 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
       <c r="G42">
         <v>1732.8</v>
       </c>
       <c r="H42" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="I42" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J42" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -12220,22 +12026,22 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F43" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="G43">
         <v>85.6</v>
       </c>
       <c r="H43" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="I43" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J43" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -12252,22 +12058,22 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F44" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="G44">
         <v>0.99094840748374524</v>
       </c>
       <c r="H44" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="I44" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J44" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -12284,22 +12090,22 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F45" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="G45">
         <v>41.618264999999994</v>
       </c>
       <c r="H45" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="I45" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J45" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -12316,22 +12122,22 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F46" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="G46">
         <v>15.0685</v>
       </c>
       <c r="H46" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="I46" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J46" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -12348,22 +12154,22 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F47" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="G47">
         <v>39.759493196779005</v>
       </c>
       <c r="H47" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="I47" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J47" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -12380,22 +12186,22 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F48" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="G48">
         <v>7.1664949898507189</v>
       </c>
       <c r="H48" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="I48" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J48" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -12412,22 +12218,22 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F49" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="G49">
         <v>4.0209849999999996</v>
       </c>
       <c r="H49" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="I49" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J49" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -12444,22 +12250,22 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="F50" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="G50">
         <v>2.6750000000000003</v>
       </c>
       <c r="H50" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="I50" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J50" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -12473,7 +12279,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12485,16 +12291,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>269</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -12502,10 +12308,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="D2" s="15">
         <v>1</v>
@@ -12516,10 +12322,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="D3" s="16">
         <v>1</v>
@@ -12530,10 +12336,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="D4" s="16">
         <v>1</v>
@@ -12544,10 +12350,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="D5" s="16">
         <v>1</v>
@@ -12558,10 +12364,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="D6" s="16">
         <v>1</v>
@@ -12572,10 +12378,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="D7" s="16">
         <v>1</v>
@@ -12586,10 +12392,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="D8" s="16">
         <v>1</v>
@@ -12600,10 +12406,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -12614,10 +12420,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="D10" s="15">
         <v>1</v>
@@ -12628,10 +12434,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -12642,10 +12448,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="D12" s="18">
         <v>1</v>
